--- a/Kenntnisse.xlsx
+++ b/Kenntnisse.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silviooberholzer/Documents/Bewerbungen/Meine/aktuell/CV_Visual/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silviooberholzer/Documents/Bewerbungen/Meine/aktuell/CV_Visual/cv-streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67768582-3782-D541-A496-E8B4A37C024F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89650FB3-6384-2344-953E-CB8F4A07C20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20020" xr2:uid="{E26E6F84-7083-42AC-AEEE-29A8D6C8B816}"/>
   </bookViews>
@@ -447,7 +447,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -506,10 +506,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -517,10 +517,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -528,10 +528,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -539,7 +539,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -550,7 +550,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -561,10 +561,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
